--- a/biology/Zoologie/Hersilia_pungwensis/Hersilia_pungwensis.xlsx
+++ b/biology/Zoologie/Hersilia_pungwensis/Hersilia_pungwensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hersilia pungwensis est une espèce d'araignées aranéomorphes de la famille des Hersiliidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hersilia pungwensis est une espèce d'araignées aranéomorphes de la famille des Hersiliidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Zimbabwe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Zimbabwe.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle mesure 4,8 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle mesure 4,8 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de pungw[e] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le fleuve Pungwe.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Tucker, 1920 : Contributions to the South African Arachnid Fauna. II. On some new South African spiders of the families Barychelidae, Dipluridae, Eresidae, Zodariidae, Heracliidae, Urocteidae, Clubionidae. Annals of the South African Museum, vol. 17, p. 439-488 (texte intégral).</t>
         </is>
